--- a/src/site/resources/statistics/intenzStats-2013.xlsx
+++ b/src/site/resources/statistics/intenzStats-2013.xlsx
@@ -445,9 +445,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -470,10 +470,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -485,6 +485,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -492,10 +495,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$8:$N$8</c:f>
+              <c:f>Table!$B$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5022</c:v>
                 </c:pt>
@@ -518,10 +521,10 @@
                   <c:v>5191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>5203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>5204</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -533,6 +536,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -565,9 +571,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -590,10 +596,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -605,6 +611,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -612,10 +621,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$9:$N$9</c:f>
+              <c:f>Table!$B$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>836</c:v>
                 </c:pt>
@@ -638,10 +647,10 @@
                   <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -653,6 +662,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -685,9 +697,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -710,10 +722,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -725,6 +737,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -732,10 +747,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$10:$N$10</c:f>
+              <c:f>Table!$B$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>73</c:v>
                 </c:pt>
@@ -758,10 +773,10 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -773,6 +788,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -805,9 +823,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -830,10 +848,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -845,6 +863,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -852,10 +873,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$11:$N$11</c:f>
+              <c:f>Table!$B$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>111</c:v>
                 </c:pt>
@@ -878,10 +899,10 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -893,6 +914,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -925,9 +949,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -950,10 +974,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -965,6 +989,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -972,10 +999,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$12:$N$12</c:f>
+              <c:f>Table!$B$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1013,6 +1040,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1045,9 +1075,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1070,10 +1100,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1085,6 +1115,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1092,10 +1125,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$13:$N$13</c:f>
+              <c:f>Table!$B$13:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -1133,6 +1166,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1165,9 +1201,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1190,10 +1226,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1205,6 +1241,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1212,10 +1251,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$14:$N$14</c:f>
+              <c:f>Table!$B$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>39</c:v>
                 </c:pt>
@@ -1238,10 +1277,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1253,6 +1292,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1285,9 +1327,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1310,10 +1352,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1325,6 +1367,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1332,10 +1377,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$15:$N$15</c:f>
+              <c:f>Table!$B$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -1373,6 +1418,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1381,11 +1429,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="92872724"/>
-        <c:axId val="59048945"/>
+        <c:axId val="70259507"/>
+        <c:axId val="8202478"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92872724"/>
+        <c:axId val="70259507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,14 +1467,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59048945"/>
+        <c:crossAx val="8202478"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59048945"/>
+        <c:axId val="8202478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1475,7 +1523,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92872724"/>
+        <c:crossAx val="70259507"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -1556,9 +1604,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1581,10 +1629,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1596,6 +1644,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1603,10 +1654,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$43:$N$43</c:f>
+              <c:f>Table!$B$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5858</c:v>
                 </c:pt>
@@ -1629,10 +1680,10 @@
                   <c:v>6054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6067</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1644,6 +1695,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1676,9 +1730,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1701,10 +1755,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1716,6 +1770,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1723,10 +1780,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$44:$N$44</c:f>
+              <c:f>Table!$B$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>184</c:v>
                 </c:pt>
@@ -1749,10 +1806,10 @@
                   <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1764,6 +1821,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1796,9 +1856,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1821,10 +1881,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1836,6 +1896,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1843,10 +1906,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$45:$N$45</c:f>
+              <c:f>Table!$B$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1869,10 +1932,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1884,6 +1947,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1892,11 +1958,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="91152279"/>
-        <c:axId val="33491420"/>
+        <c:axId val="21469760"/>
+        <c:axId val="57982202"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91152279"/>
+        <c:axId val="21469760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,14 +1996,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="33491420"/>
+        <c:crossAx val="57982202"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33491420"/>
+        <c:axId val="57982202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -1986,7 +2052,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91152279"/>
+        <c:crossAx val="21469760"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -2069,9 +2135,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2094,10 +2160,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2109,6 +2175,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2116,10 +2185,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$27:$N$27</c:f>
+              <c:f>Table!$B$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3375</c:v>
                 </c:pt>
@@ -2142,10 +2211,10 @@
                   <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>3359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>3359</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2157,6 +2226,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2189,9 +2261,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2214,10 +2286,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2229,6 +2301,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2236,10 +2311,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$28:$N$28</c:f>
+              <c:f>Table!$B$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
@@ -2262,10 +2337,10 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2277,6 +2352,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2309,9 +2387,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2334,10 +2412,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2349,6 +2427,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2356,10 +2437,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$29:$N$29</c:f>
+              <c:f>Table!$B$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>344</c:v>
                 </c:pt>
@@ -2382,10 +2463,10 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2397,6 +2478,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2429,9 +2513,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2454,10 +2538,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2469,6 +2553,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2476,10 +2563,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$30:$N$30</c:f>
+              <c:f>Table!$B$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>352</c:v>
                 </c:pt>
@@ -2502,10 +2589,10 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2517,6 +2604,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2549,9 +2639,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2574,10 +2664,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2589,6 +2679,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2596,10 +2689,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$31:$N$31</c:f>
+              <c:f>Table!$B$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>218</c:v>
                 </c:pt>
@@ -2622,10 +2715,10 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2637,6 +2730,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2669,9 +2765,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2694,10 +2790,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2709,6 +2805,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2716,10 +2815,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$32:$N$32</c:f>
+              <c:f>Table!$B$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>710</c:v>
                 </c:pt>
@@ -2742,10 +2841,10 @@
                   <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2757,6 +2856,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2765,11 +2867,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="59352692"/>
-        <c:axId val="25075924"/>
+        <c:axId val="1663056"/>
+        <c:axId val="51863891"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59352692"/>
+        <c:axId val="1663056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,14 +2910,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25075924"/>
+        <c:crossAx val="51863891"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25075924"/>
+        <c:axId val="51863891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2965,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="59352692"/>
+        <c:crossAx val="1663056"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -2944,9 +3046,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2969,10 +3071,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2984,6 +3086,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2991,10 +3096,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$25:$N$25</c:f>
+              <c:f>Table!$B$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>208827</c:v>
                 </c:pt>
@@ -3017,10 +3122,10 @@
                   <c:v>210037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>210041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>212487</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3032,6 +3137,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3064,9 +3172,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3089,10 +3197,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3104,6 +3212,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3111,10 +3222,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$23:$N$23</c:f>
+              <c:f>Table!$B$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3975</c:v>
                 </c:pt>
@@ -3137,10 +3248,10 @@
                   <c:v>3962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>3962</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>3962</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3152,6 +3263,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3184,9 +3298,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3209,10 +3323,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3224,6 +3338,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3231,10 +3348,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$24:$N$24</c:f>
+              <c:f>Table!$B$24:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>466</c:v>
                 </c:pt>
@@ -3257,10 +3374,10 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3272,6 +3389,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3304,9 +3424,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3329,10 +3449,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3344,6 +3464,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3351,10 +3474,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$22:$N$22</c:f>
+              <c:f>Table!$B$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>544</c:v>
                 </c:pt>
@@ -3377,10 +3500,10 @@
                   <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3392,6 +3515,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3400,11 +3526,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="28841590"/>
-        <c:axId val="98766775"/>
+        <c:axId val="86147800"/>
+        <c:axId val="90493366"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28841590"/>
+        <c:axId val="86147800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,14 +3546,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98766775"/>
+        <c:crossAx val="90493366"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98766775"/>
+        <c:axId val="90493366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3476,7 +3602,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28841590"/>
+        <c:crossAx val="86147800"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -3557,9 +3683,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3582,10 +3708,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3597,6 +3723,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3604,10 +3733,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$20:$N$20</c:f>
+              <c:f>Table!$B$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>219639</c:v>
                 </c:pt>
@@ -3630,10 +3759,10 @@
                   <c:v>221105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>221109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>224018</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3645,6 +3774,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3677,9 +3809,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3702,10 +3834,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3717,6 +3849,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3724,10 +3859,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$18:$N$18</c:f>
+              <c:f>Table!$B$18:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4002</c:v>
                 </c:pt>
@@ -3750,10 +3885,10 @@
                   <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3765,6 +3900,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3797,9 +3935,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3822,10 +3960,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3837,6 +3975,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3844,10 +3985,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$19:$N$19</c:f>
+              <c:f>Table!$B$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1442</c:v>
                 </c:pt>
@@ -3870,10 +4011,10 @@
                   <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3885,6 +4026,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3917,9 +4061,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$N$1</c:f>
+              <c:f>Table!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3942,10 +4086,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3957,6 +4101,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3964,10 +4111,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$17:$N$17</c:f>
+              <c:f>Table!$B$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1690</c:v>
                 </c:pt>
@@ -3990,10 +4137,10 @@
                   <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -4005,6 +4152,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -4013,11 +4163,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="64817583"/>
-        <c:axId val="23305296"/>
+        <c:axId val="91672731"/>
+        <c:axId val="90793596"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64817583"/>
+        <c:axId val="91672731"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,14 +4183,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23305296"/>
+        <c:crossAx val="90793596"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23305296"/>
+        <c:axId val="90793596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4089,7 +4239,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64817583"/>
+        <c:crossAx val="91672731"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4144,9 +4294,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$A$1:$N$1</c:f>
+              <c:f>Table!$A$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Release number</c:v>
                 </c:pt>
@@ -4172,10 +4322,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4187,6 +4337,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -4194,10 +4347,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$A$6:$N$6</c:f>
+              <c:f>Table!$A$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -4223,10 +4376,10 @@
                   <c:v>19844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>19877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>19889</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4238,6 +4391,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -4245,11 +4401,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="26271008"/>
-        <c:axId val="41157330"/>
+        <c:axId val="84655267"/>
+        <c:axId val="71784288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26271008"/>
+        <c:axId val="84655267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,14 +4444,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41157330"/>
+        <c:crossAx val="71784288"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41157330"/>
+        <c:axId val="71784288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4344,7 +4500,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26271008"/>
+        <c:crossAx val="84655267"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4370,13 +4526,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4384,8 +4540,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="161280"/>
-        <a:ext cx="11590200" cy="3839040"/>
+        <a:off x="165600" y="161640"/>
+        <a:ext cx="11590200" cy="3833280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4400,7 +4556,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4414,8 +4570,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4082760"/>
-        <a:ext cx="11638800" cy="3739680"/>
+        <a:off x="152280" y="4083120"/>
+        <a:ext cx="11638800" cy="3739320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4474,9 +4630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>491760</xdr:colOff>
+      <xdr:colOff>495720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4485,7 +4641,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11245320" cy="3661200"/>
+        <a:ext cx="11249280" cy="3658680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4500,13 +4656,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4514,8 +4670,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3844440"/>
-        <a:ext cx="11249640" cy="3768120"/>
+        <a:off x="318600" y="3844800"/>
+        <a:ext cx="11253600" cy="3768480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4568,13 +4724,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H3" activeCellId="0" pane="topLeft" sqref="H3"/>
+      <selection activeCell="K1" activeCellId="0" pane="topLeft" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.55"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7633928571429"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4419642857143"/>
@@ -4605,6 +4761,12 @@
       <c r="H1" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
@@ -4631,12 +4793,17 @@
       <c r="H2" s="2" t="n">
         <v>41492</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="2" t="n">
+        <v>41521</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>41563</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
@@ -4663,6 +4830,12 @@
       <c r="H3" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
@@ -4689,8 +4862,14 @@
       <c r="H4" s="0" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="5">
+      <c r="I4" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4715,8 +4894,14 @@
       <c r="H5" s="3" t="n">
         <v>287</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="6">
+      <c r="I5" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4740,6 +4925,12 @@
       </c>
       <c r="H6" s="3" t="n">
         <v>19844</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>19877</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>19889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -4748,8 +4939,9 @@
       </c>
       <c r="B7" s="4"/>
       <c r="H7" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="8">
+      <c r="I7" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="8">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4773,6 +4965,12 @@
       </c>
       <c r="H8" s="3" t="n">
         <v>5191</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>5203</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>5204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -4800,6 +4998,12 @@
       <c r="H9" s="0" t="n">
         <v>863</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>863</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>863</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="4" t="s">
@@ -4826,6 +5030,12 @@
       <c r="H10" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
@@ -4852,6 +5062,12 @@
       <c r="H11" s="0" t="n">
         <v>129</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4" t="s">
@@ -4894,6 +5110,12 @@
       <c r="H14" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4" t="s">
@@ -4930,6 +5152,12 @@
       <c r="H17" s="0" t="n">
         <v>1711</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <v>1711</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1711</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4" t="s">
@@ -4956,6 +5184,12 @@
       <c r="H18" s="0" t="n">
         <v>3988</v>
       </c>
+      <c r="I18" s="0" t="n">
+        <v>3988</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>3988</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
@@ -4982,6 +5216,12 @@
       <c r="H19" s="0" t="n">
         <v>1442</v>
       </c>
+      <c r="I19" s="0" t="n">
+        <v>1442</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1442</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
@@ -5008,6 +5248,12 @@
       <c r="H20" s="0" t="n">
         <v>221105</v>
       </c>
+      <c r="I20" s="0" t="n">
+        <v>221109</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>224018</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
@@ -5039,6 +5285,12 @@
       <c r="H22" s="0" t="n">
         <v>552</v>
       </c>
+      <c r="I22" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>552</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
@@ -5065,6 +5317,12 @@
       <c r="H23" s="0" t="n">
         <v>3962</v>
       </c>
+      <c r="I23" s="0" t="n">
+        <v>3962</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>3962</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="4" t="s">
@@ -5091,6 +5349,12 @@
       <c r="H24" s="0" t="n">
         <v>466</v>
       </c>
+      <c r="I24" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="4" t="s">
@@ -5117,6 +5381,12 @@
       <c r="H25" s="0" t="n">
         <v>210037</v>
       </c>
+      <c r="I25" s="0" t="n">
+        <v>210041</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>212487</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
@@ -5148,6 +5418,12 @@
       <c r="H27" s="0" t="n">
         <v>3360</v>
       </c>
+      <c r="I27" s="0" t="n">
+        <v>3359</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>3359</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="4" t="s">
@@ -5174,6 +5450,12 @@
       <c r="H28" s="0" t="n">
         <v>110</v>
       </c>
+      <c r="I28" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="4" t="s">
@@ -5200,6 +5482,12 @@
       <c r="H29" s="0" t="n">
         <v>344</v>
       </c>
+      <c r="I29" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="4" t="s">
@@ -5226,6 +5514,12 @@
       <c r="H30" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="I30" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
@@ -5252,6 +5546,12 @@
       <c r="H31" s="0" t="n">
         <v>217</v>
       </c>
+      <c r="I31" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
@@ -5278,6 +5578,12 @@
       <c r="H32" s="0" t="n">
         <v>694</v>
       </c>
+      <c r="I32" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>684</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
@@ -5309,6 +5615,12 @@
       <c r="H34" s="0" t="n">
         <v>3193</v>
       </c>
+      <c r="I34" s="0" t="n">
+        <v>3193</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>3193</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="4" t="s">
@@ -5335,6 +5647,12 @@
       <c r="H35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="4" t="s">
@@ -5361,6 +5679,12 @@
       <c r="H36" s="0" t="n">
         <v>337</v>
       </c>
+      <c r="I36" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
@@ -5387,6 +5711,12 @@
       <c r="H37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
@@ -5413,6 +5743,12 @@
       <c r="H38" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="I38" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="4" t="s">
@@ -5439,22 +5775,28 @@
       <c r="H39" s="0" t="n">
         <v>641</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="40">
+      <c r="I39" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="43" s="4">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43" s="4">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -5488,11 +5830,11 @@
       </c>
       <c r="I43" s="4" t="n">
         <f aca="false">SUM(I8:I9)</f>
-        <v>0</v>
+        <v>6066</v>
       </c>
       <c r="J43" s="4" t="n">
         <f aca="false">SUM(J8:J9)</f>
-        <v>0</v>
+        <v>6067</v>
       </c>
       <c r="K43" s="4" t="n">
         <f aca="false">SUM(K8:K9)</f>
@@ -5510,8 +5852,12 @@
         <f aca="false">SUM(N8:N9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="44" s="4">
+      <c r="O43" s="4" t="n">
+        <f aca="false">SUM(O8:O9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44" s="4">
       <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
@@ -5545,11 +5891,11 @@
       </c>
       <c r="I44" s="4" t="n">
         <f aca="false">SUM(I10:I11)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J44" s="4" t="n">
         <f aca="false">SUM(J10:J11)</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="K44" s="4" t="n">
         <f aca="false">SUM(K10:K11)</f>
@@ -5567,8 +5913,12 @@
         <f aca="false">SUM(N10:N11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="45" s="4">
+      <c r="O44" s="4" t="n">
+        <f aca="false">SUM(O10:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45" s="4">
       <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
@@ -5601,12 +5951,12 @@
         <v>18</v>
       </c>
       <c r="I45" s="4" t="n">
-        <f aca="false">I12</f>
-        <v>0</v>
+        <f aca="false">I14</f>
+        <v>3</v>
       </c>
       <c r="J45" s="4" t="n">
-        <f aca="false">J12</f>
-        <v>0</v>
+        <f aca="false">J14</f>
+        <v>64</v>
       </c>
       <c r="K45" s="4" t="n">
         <f aca="false">K12</f>
@@ -5624,11 +5974,15 @@
         <f aca="false">N12</f>
         <v>0</v>
       </c>
+      <c r="O45" s="4" t="n">
+        <f aca="false">O12</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
@@ -5851,7 +6205,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5889,7 +6243,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5925,7 +6279,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5967,7 +6321,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/site/resources/statistics/intenzStats-2013.xlsx
+++ b/src/site/resources/statistics/intenzStats-2013.xlsx
@@ -476,7 +476,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -527,7 +527,7 @@
                   <c:v>5204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>5246</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -602,7 +602,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -653,7 +653,7 @@
                   <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>868</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -728,7 +728,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -779,7 +779,7 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -854,7 +854,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -905,7 +905,7 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -980,7 +980,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1106,7 +1106,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1232,7 +1232,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1283,7 +1283,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1358,7 +1358,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1429,11 +1429,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="70259507"/>
-        <c:axId val="8202478"/>
+        <c:axId val="37803595"/>
+        <c:axId val="99329520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70259507"/>
+        <c:axId val="37803595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,14 +1467,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8202478"/>
+        <c:crossAx val="99329520"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8202478"/>
+        <c:axId val="99329520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1523,7 +1523,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70259507"/>
+        <c:crossAx val="37803595"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -1635,7 +1635,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1686,7 +1686,7 @@
                   <c:v>6067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6114</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1761,7 +1761,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1812,7 +1812,7 @@
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1887,7 +1887,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -1938,7 +1938,7 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1958,11 +1958,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="21469760"/>
-        <c:axId val="57982202"/>
+        <c:axId val="41335054"/>
+        <c:axId val="74013175"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21469760"/>
+        <c:axId val="41335054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,14 +1996,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57982202"/>
+        <c:crossAx val="74013175"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57982202"/>
+        <c:axId val="74013175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -2052,7 +2052,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="21469760"/>
+        <c:crossAx val="41335054"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -2166,7 +2166,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2217,7 +2217,7 @@
                   <c:v>3359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>3354</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2292,7 +2292,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2343,7 +2343,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2418,7 +2418,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2469,7 +2469,7 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2544,7 +2544,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2595,7 +2595,7 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2670,7 +2670,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2721,7 +2721,7 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2796,7 +2796,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2847,7 +2847,7 @@
                   <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -2867,11 +2867,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="1663056"/>
-        <c:axId val="51863891"/>
+        <c:axId val="44265323"/>
+        <c:axId val="27409666"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1663056"/>
+        <c:axId val="44265323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,14 +2910,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51863891"/>
+        <c:crossAx val="27409666"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51863891"/>
+        <c:axId val="27409666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2965,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1663056"/>
+        <c:crossAx val="44265323"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -3077,7 +3077,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3128,7 +3128,7 @@
                   <c:v>212487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>212484</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3203,7 +3203,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3254,7 +3254,7 @@
                   <c:v>3962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>3958</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3329,7 +3329,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3380,7 +3380,7 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3455,7 +3455,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3506,7 +3506,7 @@
                   <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3526,11 +3526,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="86147800"/>
-        <c:axId val="90493366"/>
+        <c:axId val="19017559"/>
+        <c:axId val="18703467"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86147800"/>
+        <c:axId val="19017559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,14 +3546,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90493366"/>
+        <c:crossAx val="18703467"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90493366"/>
+        <c:axId val="18703467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3602,7 +3602,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86147800"/>
+        <c:crossAx val="19017559"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -3714,7 +3714,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3765,7 +3765,7 @@
                   <c:v>224018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>224015</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3840,7 +3840,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3891,7 +3891,7 @@
                   <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>3983</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -3966,7 +3966,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4017,7 +4017,7 @@
                   <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4092,7 +4092,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4143,7 +4143,7 @@
                   <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1715</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4163,11 +4163,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="91672731"/>
-        <c:axId val="90793596"/>
+        <c:axId val="55030916"/>
+        <c:axId val="74729447"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91672731"/>
+        <c:axId val="55030916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,14 +4183,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90793596"/>
+        <c:crossAx val="74729447"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90793596"/>
+        <c:axId val="74729447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4239,7 +4239,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91672731"/>
+        <c:crossAx val="55030916"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4328,7 +4328,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -4382,7 +4382,7 @@
                   <c:v>19889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>20007</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -4401,11 +4401,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="84655267"/>
-        <c:axId val="71784288"/>
+        <c:axId val="85839390"/>
+        <c:axId val="74687969"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84655267"/>
+        <c:axId val="85839390"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,14 +4444,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71784288"/>
+        <c:crossAx val="74687969"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71784288"/>
+        <c:axId val="74687969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4500,7 +4500,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84655267"/>
+        <c:crossAx val="85839390"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4526,13 +4526,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4540,8 +4540,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="161640"/>
-        <a:ext cx="11590200" cy="3833280"/>
+        <a:off x="165600" y="162000"/>
+        <a:ext cx="11590200" cy="3835080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4556,7 +4556,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4570,8 +4570,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4083120"/>
-        <a:ext cx="11638800" cy="3739320"/>
+        <a:off x="152280" y="4083480"/>
+        <a:ext cx="11638800" cy="3738960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4630,9 +4630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
+      <xdr:colOff>491760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4641,7 +4641,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11249280" cy="3658680"/>
+        <a:ext cx="11245320" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4656,13 +4656,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4670,8 +4670,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3844800"/>
-        <a:ext cx="11253600" cy="3768480"/>
+        <a:off x="318600" y="3845160"/>
+        <a:ext cx="11249640" cy="3767400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4727,7 +4727,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K1" activeCellId="0" pane="topLeft" sqref="K1"/>
+      <selection activeCell="L1" activeCellId="0" pane="topLeft" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -4767,6 +4767,9 @@
       <c r="J1" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
@@ -4799,7 +4802,9 @@
       <c r="J2" s="2" t="n">
         <v>41563</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="n">
+        <v>41592</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -4836,6 +4841,9 @@
       <c r="J3" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
@@ -4868,8 +4876,11 @@
       <c r="J4" s="0" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="5">
+      <c r="K4" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4900,8 +4911,11 @@
       <c r="J5" s="0" t="n">
         <v>287</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+      <c r="K5" s="0" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4931,6 +4945,9 @@
       </c>
       <c r="J6" s="0" t="n">
         <v>19889</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>20007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -4941,7 +4958,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="8">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4971,6 +4988,9 @@
       </c>
       <c r="J8" s="0" t="n">
         <v>5204</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>5246</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -5004,6 +5024,9 @@
       <c r="J9" s="0" t="n">
         <v>863</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <v>868</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="4" t="s">
@@ -5036,6 +5059,9 @@
       <c r="J10" s="0" t="n">
         <v>73</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
@@ -5068,6 +5094,9 @@
       <c r="J11" s="0" t="n">
         <v>129</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4" t="s">
@@ -5116,13 +5145,16 @@
       <c r="J14" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5158,6 +5190,9 @@
       <c r="J17" s="0" t="n">
         <v>1711</v>
       </c>
+      <c r="K17" s="0" t="n">
+        <v>1715</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4" t="s">
@@ -5190,6 +5225,9 @@
       <c r="J18" s="0" t="n">
         <v>3988</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <v>3983</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
@@ -5222,8 +5260,11 @@
       <c r="J19" s="0" t="n">
         <v>1442</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="K19" s="0" t="n">
+        <v>1442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -5254,8 +5295,11 @@
       <c r="J20" s="0" t="n">
         <v>224018</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="K20" s="0" t="n">
+        <v>224015</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,6 +5335,9 @@
       <c r="J22" s="0" t="n">
         <v>552</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <v>555</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
@@ -5323,6 +5370,9 @@
       <c r="J23" s="0" t="n">
         <v>3962</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <v>3958</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="4" t="s">
@@ -5355,8 +5405,11 @@
       <c r="J24" s="0" t="n">
         <v>466</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="K24" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -5386,6 +5439,9 @@
       </c>
       <c r="J25" s="0" t="n">
         <v>212487</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>212484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -5424,6 +5480,9 @@
       <c r="J27" s="0" t="n">
         <v>3359</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <v>3354</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="4" t="s">
@@ -5456,6 +5515,9 @@
       <c r="J28" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="4" t="s">
@@ -5488,6 +5550,9 @@
       <c r="J29" s="0" t="n">
         <v>344</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="4" t="s">
@@ -5520,6 +5585,9 @@
       <c r="J30" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
@@ -5552,6 +5620,9 @@
       <c r="J31" s="0" t="n">
         <v>217</v>
       </c>
+      <c r="K31" s="0" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
@@ -5584,6 +5655,9 @@
       <c r="J32" s="0" t="n">
         <v>684</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <v>674</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
@@ -5621,6 +5695,9 @@
       <c r="J34" s="0" t="n">
         <v>3193</v>
       </c>
+      <c r="K34" s="0" t="n">
+        <v>3190</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="4" t="s">
@@ -5653,6 +5730,9 @@
       <c r="J35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="4" t="s">
@@ -5685,6 +5765,9 @@
       <c r="J36" s="0" t="n">
         <v>337</v>
       </c>
+      <c r="K36" s="0" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
@@ -5717,6 +5800,9 @@
       <c r="J37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
@@ -5749,6 +5835,9 @@
       <c r="J38" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="K38" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="4" t="s">
@@ -5781,6 +5870,9 @@
       <c r="J39" s="0" t="n">
         <v>631</v>
       </c>
+      <c r="K39" s="0" t="n">
+        <v>624</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="1"/>
@@ -5838,7 +5930,7 @@
       </c>
       <c r="K43" s="4" t="n">
         <f aca="false">SUM(K8:K9)</f>
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="L43" s="4" t="n">
         <f aca="false">SUM(L8:L9)</f>
@@ -5899,7 +5991,7 @@
       </c>
       <c r="K44" s="4" t="n">
         <f aca="false">SUM(K10:K11)</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="L44" s="4" t="n">
         <f aca="false">SUM(L10:L11)</f>
@@ -5959,8 +6051,8 @@
         <v>64</v>
       </c>
       <c r="K45" s="4" t="n">
-        <f aca="false">K12</f>
-        <v>0</v>
+        <f aca="false">K14</f>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
         <f aca="false">L12</f>

--- a/src/site/resources/statistics/intenzStats-2013.xlsx
+++ b/src/site/resources/statistics/intenzStats-2013.xlsx
@@ -392,7 +392,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -479,7 +479,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -530,7 +530,7 @@
                   <c:v>5246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>5246</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -605,7 +605,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -656,7 +656,7 @@
                   <c:v>868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>868</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -731,7 +731,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -782,7 +782,7 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -857,7 +857,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -908,7 +908,7 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -983,7 +983,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1109,7 +1109,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1235,7 +1235,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1286,7 +1286,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1361,7 +1361,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1429,11 +1429,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="37803595"/>
-        <c:axId val="99329520"/>
+        <c:axId val="24395166"/>
+        <c:axId val="16363275"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37803595"/>
+        <c:axId val="24395166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,14 +1467,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="99329520"/>
+        <c:crossAx val="16363275"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99329520"/>
+        <c:axId val="16363275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1523,7 +1523,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37803595"/>
+        <c:crossAx val="24395166"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -1551,7 +1551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1638,7 +1638,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1689,7 +1689,7 @@
                   <c:v>6114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6114</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1764,7 +1764,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1815,7 +1815,7 @@
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1890,7 +1890,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -1941,7 +1941,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1958,11 +1958,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="41335054"/>
-        <c:axId val="74013175"/>
+        <c:axId val="32634687"/>
+        <c:axId val="8044956"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41335054"/>
+        <c:axId val="32634687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,14 +1996,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74013175"/>
+        <c:crossAx val="8044956"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74013175"/>
+        <c:axId val="8044956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -2052,7 +2052,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41335054"/>
+        <c:crossAx val="32634687"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -2082,7 +2082,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2169,7 +2169,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2220,7 +2220,7 @@
                   <c:v>3354</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>3354</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2295,7 +2295,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2346,7 +2346,7 @@
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2421,7 +2421,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2472,7 +2472,7 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2547,7 +2547,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2598,7 +2598,7 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2673,7 +2673,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2724,7 +2724,7 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2799,7 +2799,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2850,7 +2850,7 @@
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -2867,11 +2867,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="44265323"/>
-        <c:axId val="27409666"/>
+        <c:axId val="75986222"/>
+        <c:axId val="45527900"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44265323"/>
+        <c:axId val="75986222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,14 +2910,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27409666"/>
+        <c:crossAx val="45527900"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27409666"/>
+        <c:axId val="45527900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2965,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44265323"/>
+        <c:crossAx val="75986222"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -2993,7 +2993,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3080,7 +3080,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3131,7 +3131,7 @@
                   <c:v>212484</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>212590</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3206,7 +3206,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3257,7 +3257,7 @@
                   <c:v>3958</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>3959</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3332,7 +3332,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3383,7 +3383,7 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3458,7 +3458,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3509,7 +3509,7 @@
                   <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3526,11 +3526,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="19017559"/>
-        <c:axId val="18703467"/>
+        <c:axId val="91633812"/>
+        <c:axId val="19888275"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19017559"/>
+        <c:axId val="91633812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,14 +3546,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18703467"/>
+        <c:crossAx val="19888275"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18703467"/>
+        <c:axId val="19888275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3602,7 +3602,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19017559"/>
+        <c:crossAx val="91633812"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -3630,7 +3630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3717,7 +3717,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3768,7 +3768,7 @@
                   <c:v>224015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>224132</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3843,7 +3843,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3894,7 +3894,7 @@
                   <c:v>3983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>3988</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -3969,7 +3969,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -4020,7 +4020,7 @@
                   <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -4095,7 +4095,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -4146,7 +4146,7 @@
                   <c:v>1715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>1725</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -4163,11 +4163,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="55030916"/>
-        <c:axId val="74729447"/>
+        <c:axId val="44256860"/>
+        <c:axId val="71889048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55030916"/>
+        <c:axId val="44256860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,14 +4183,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74729447"/>
+        <c:crossAx val="71889048"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74729447"/>
+        <c:axId val="71889048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4239,7 +4239,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="55030916"/>
+        <c:crossAx val="44256860"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4267,7 +4267,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4331,7 +4331,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v/>
@@ -4385,7 +4385,7 @@
                   <c:v>20007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>20021</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v/>
@@ -4401,11 +4401,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="85839390"/>
-        <c:axId val="74687969"/>
+        <c:axId val="71589232"/>
+        <c:axId val="98847771"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85839390"/>
+        <c:axId val="71589232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,14 +4444,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74687969"/>
+        <c:crossAx val="98847771"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74687969"/>
+        <c:axId val="98847771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4500,7 +4500,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85839390"/>
+        <c:crossAx val="71589232"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4526,13 +4526,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4540,8 +4540,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="162000"/>
-        <a:ext cx="11590200" cy="3835080"/>
+        <a:off x="165600" y="162360"/>
+        <a:ext cx="11590200" cy="3833280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4556,7 +4556,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4570,8 +4570,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4083480"/>
-        <a:ext cx="11638800" cy="3738960"/>
+        <a:off x="152280" y="4083840"/>
+        <a:ext cx="11638800" cy="3738600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4630,9 +4630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>491760</xdr:colOff>
+      <xdr:colOff>495720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4641,7 +4641,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11245320" cy="3661200"/>
+        <a:ext cx="11249280" cy="3658680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4656,13 +4656,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4670,8 +4670,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3845160"/>
-        <a:ext cx="11249640" cy="3767400"/>
+        <a:off x="318600" y="3845520"/>
+        <a:ext cx="11253600" cy="3768480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4727,12 +4727,12 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L1" activeCellId="0" pane="topLeft" sqref="L1"/>
+      <selection activeCell="L14" activeCellId="0" pane="topLeft" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7633928571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.78125"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4419642857143"/>
   </cols>
   <sheetData>
@@ -4770,6 +4770,9 @@
       <c r="K1" s="1" t="n">
         <v>93</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
@@ -4805,7 +4808,9 @@
       <c r="K2" s="2" t="n">
         <v>41592</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="n">
+        <v>41619</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4844,6 +4849,9 @@
       <c r="K3" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="L3" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
@@ -4879,8 +4887,11 @@
       <c r="K4" s="0" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="5">
+      <c r="L4" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4914,8 +4925,11 @@
       <c r="K5" s="0" t="n">
         <v>287</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="6">
+      <c r="L5" s="0" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4948,6 +4962,9 @@
       </c>
       <c r="K6" s="0" t="n">
         <v>20007</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>20021</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -4958,7 +4975,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="8">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4990,6 +5007,9 @@
         <v>5204</v>
       </c>
       <c r="K8" s="0" t="n">
+        <v>5246</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>5246</v>
       </c>
     </row>
@@ -5027,6 +5047,9 @@
       <c r="K9" s="0" t="n">
         <v>868</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <v>868</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="4" t="s">
@@ -5062,6 +5085,9 @@
       <c r="K10" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
@@ -5097,6 +5123,9 @@
       <c r="K11" s="0" t="n">
         <v>130</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4" t="s">
@@ -5148,13 +5177,16 @@
       <c r="K14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="L14" s="0" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5193,6 +5225,9 @@
       <c r="K17" s="0" t="n">
         <v>1715</v>
       </c>
+      <c r="L17" s="0" t="n">
+        <v>1725</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4" t="s">
@@ -5228,6 +5263,9 @@
       <c r="K18" s="0" t="n">
         <v>3983</v>
       </c>
+      <c r="L18" s="0" t="n">
+        <v>3988</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
@@ -5263,8 +5301,11 @@
       <c r="K19" s="0" t="n">
         <v>1442</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="20">
+      <c r="L19" s="0" t="n">
+        <v>1442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -5298,8 +5339,11 @@
       <c r="K20" s="0" t="n">
         <v>224015</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="21">
+      <c r="L20" s="0" t="n">
+        <v>224132</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5338,6 +5382,9 @@
       <c r="K22" s="0" t="n">
         <v>555</v>
       </c>
+      <c r="L22" s="0" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
@@ -5373,6 +5420,9 @@
       <c r="K23" s="0" t="n">
         <v>3958</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <v>3959</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="4" t="s">
@@ -5408,8 +5458,11 @@
       <c r="K24" s="0" t="n">
         <v>466</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="25">
+      <c r="L24" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -5442,6 +5495,9 @@
       </c>
       <c r="K25" s="0" t="n">
         <v>212484</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>212590</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -5483,6 +5539,9 @@
       <c r="K27" s="0" t="n">
         <v>3354</v>
       </c>
+      <c r="L27" s="0" t="n">
+        <v>3354</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="4" t="s">
@@ -5518,6 +5577,9 @@
       <c r="K28" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="L28" s="0" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="4" t="s">
@@ -5553,6 +5615,9 @@
       <c r="K29" s="0" t="n">
         <v>344</v>
       </c>
+      <c r="L29" s="0" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="4" t="s">
@@ -5588,6 +5653,9 @@
       <c r="K30" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="L30" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
@@ -5623,6 +5691,9 @@
       <c r="K31" s="0" t="n">
         <v>217</v>
       </c>
+      <c r="L31" s="0" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
@@ -5658,6 +5729,9 @@
       <c r="K32" s="0" t="n">
         <v>674</v>
       </c>
+      <c r="L32" s="0" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
@@ -5698,6 +5772,9 @@
       <c r="K34" s="0" t="n">
         <v>3190</v>
       </c>
+      <c r="L34" s="0" t="n">
+        <v>3190</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="4" t="s">
@@ -5733,6 +5810,9 @@
       <c r="K35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="4" t="s">
@@ -5768,6 +5848,9 @@
       <c r="K36" s="0" t="n">
         <v>337</v>
       </c>
+      <c r="L36" s="0" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
@@ -5803,6 +5886,9 @@
       <c r="K37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
@@ -5838,6 +5924,9 @@
       <c r="K38" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="L38" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="4" t="s">
@@ -5873,6 +5962,9 @@
       <c r="K39" s="0" t="n">
         <v>624</v>
       </c>
+      <c r="L39" s="0" t="n">
+        <v>622</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="1"/>
@@ -5934,7 +6026,7 @@
       </c>
       <c r="L43" s="4" t="n">
         <f aca="false">SUM(L8:L9)</f>
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="M43" s="4" t="n">
         <f aca="false">SUM(M8:M9)</f>
@@ -5995,7 +6087,7 @@
       </c>
       <c r="L44" s="4" t="n">
         <f aca="false">SUM(L10:L11)</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="M44" s="4" t="n">
         <f aca="false">SUM(M10:M11)</f>
@@ -6055,8 +6147,8 @@
         <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <f aca="false">L12</f>
-        <v>0</v>
+        <f aca="false">L14</f>
+        <v>51</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">M12</f>
@@ -6351,7 +6443,7 @@
   </sheetPr>
   <dimension ref="B1:H2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/src/site/resources/statistics/intenzStats-2013.xlsx
+++ b/src/site/resources/statistics/intenzStats-2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="363" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="453" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
@@ -392,7 +392,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -424,7 +424,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$8:$A$8</c:f>
+              <c:f>Table!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,9 +445,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -480,25 +480,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$8:$O$8</c:f>
+              <c:f>Table!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5022</c:v>
                 </c:pt>
@@ -531,15 +522,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5246</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +532,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$9:$A$9</c:f>
+              <c:f>Table!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -571,9 +553,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -606,25 +588,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$9:$O$9</c:f>
+              <c:f>Table!$B$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>836</c:v>
                 </c:pt>
@@ -657,15 +630,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +640,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$10:$A$10</c:f>
+              <c:f>Table!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,9 +661,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -732,25 +696,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$10:$O$10</c:f>
+              <c:f>Table!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>73</c:v>
                 </c:pt>
@@ -783,15 +738,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,7 +748,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$11:$A$11</c:f>
+              <c:f>Table!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -823,9 +769,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -858,25 +804,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$11:$O$11</c:f>
+              <c:f>Table!$B$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>111</c:v>
                 </c:pt>
@@ -909,15 +846,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +856,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$12:$A$12</c:f>
+              <c:f>Table!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -949,9 +877,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -984,25 +912,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$12:$O$12</c:f>
+              <c:f>Table!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1034,15 +953,6 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1054,7 +964,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$13:$A$13</c:f>
+              <c:f>Table!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,9 +985,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1110,25 +1020,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$13:$O$13</c:f>
+              <c:f>Table!$B$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -1160,15 +1061,6 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1180,7 +1072,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$14:$A$14</c:f>
+              <c:f>Table!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1201,9 +1093,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1236,25 +1128,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$14:$O$14</c:f>
+              <c:f>Table!$B$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>39</c:v>
                 </c:pt>
@@ -1287,15 +1170,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,7 +1180,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$15:$A$15</c:f>
+              <c:f>Table!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1327,9 +1201,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1362,25 +1236,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$15:$O$15</c:f>
+              <c:f>Table!$B$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -1412,15 +1277,6 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1429,11 +1285,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="24395166"/>
-        <c:axId val="16363275"/>
+        <c:axId val="60543907"/>
+        <c:axId val="55571693"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24395166"/>
+        <c:axId val="60543907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,14 +1323,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16363275"/>
+        <c:crossAx val="55571693"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16363275"/>
+        <c:axId val="55571693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1523,7 +1379,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24395166"/>
+        <c:crossAx val="60543907"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -1551,7 +1407,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1583,7 +1439,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$43:$A$43</c:f>
+              <c:f>Table!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1604,9 +1460,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1639,25 +1495,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$43:$O$43</c:f>
+              <c:f>Table!$B$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5858</c:v>
                 </c:pt>
@@ -1690,15 +1537,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1547,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$44:$A$44</c:f>
+              <c:f>Table!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1730,9 +1568,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1765,25 +1603,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$44:$O$44</c:f>
+              <c:f>Table!$B$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>184</c:v>
                 </c:pt>
@@ -1816,15 +1645,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1655,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$45:$A$45</c:f>
+              <c:f>Table!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1856,9 +1676,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -1891,25 +1711,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$45:$O$45</c:f>
+              <c:f>Table!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1942,15 +1753,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,11 +1760,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="32634687"/>
-        <c:axId val="8044956"/>
+        <c:axId val="26150251"/>
+        <c:axId val="49305812"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32634687"/>
+        <c:axId val="26150251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,14 +1798,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8044956"/>
+        <c:crossAx val="49305812"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8044956"/>
+        <c:axId val="49305812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -2052,7 +1854,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32634687"/>
+        <c:crossAx val="26150251"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -2082,7 +1884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2114,7 +1916,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$27:$A$27</c:f>
+              <c:f>Table!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2135,9 +1937,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2170,25 +1972,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$27:$O$27</c:f>
+              <c:f>Table!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3375</c:v>
                 </c:pt>
@@ -2221,15 +2014,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3354</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,7 +2024,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$28:$A$28</c:f>
+              <c:f>Table!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,9 +2045,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2296,25 +2080,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$28:$O$28</c:f>
+              <c:f>Table!$B$28:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
@@ -2347,15 +2122,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,7 +2132,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$29:$A$29</c:f>
+              <c:f>Table!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2387,9 +2153,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2422,25 +2188,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$29:$O$29</c:f>
+              <c:f>Table!$B$29:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>344</c:v>
                 </c:pt>
@@ -2473,15 +2230,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,7 +2240,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$30:$A$30</c:f>
+              <c:f>Table!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2513,9 +2261,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2548,25 +2296,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$30:$O$30</c:f>
+              <c:f>Table!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>352</c:v>
                 </c:pt>
@@ -2599,15 +2338,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,7 +2348,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$31:$A$31</c:f>
+              <c:f>Table!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2639,9 +2369,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2674,25 +2404,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$31:$O$31</c:f>
+              <c:f>Table!$B$31:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>218</c:v>
                 </c:pt>
@@ -2725,15 +2446,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,7 +2456,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$32:$A$32</c:f>
+              <c:f>Table!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2765,9 +2477,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -2800,25 +2512,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$32:$O$32</c:f>
+              <c:f>Table!$B$32:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>710</c:v>
                 </c:pt>
@@ -2851,15 +2554,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,11 +2561,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="75986222"/>
-        <c:axId val="45527900"/>
+        <c:axId val="30279432"/>
+        <c:axId val="25463464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75986222"/>
+        <c:axId val="30279432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,14 +2604,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="45527900"/>
+        <c:crossAx val="25463464"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45527900"/>
+        <c:axId val="25463464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2659,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75986222"/>
+        <c:crossAx val="30279432"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -2993,7 +2687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3025,11 +2719,335 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$25:$A$25</c:f>
+              <c:f>Table!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Swiss-Prot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>208827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>212487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>212484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>212590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROSITE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIAGRAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3046,9 +3064,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3081,403 +3099,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$25:$O$25</c:f>
+              <c:f>Table!$B$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>208827</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>209369</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>209091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>209205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>210424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210037</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>212487</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>212484</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>212590</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$A$23:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$B$23:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3975</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3975</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3970</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3969</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3962</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3962</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3962</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3958</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3959</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$A$24:$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PROSITE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$B$24:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$A$22:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DIAGRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$B$22:$O$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>544</c:v>
                 </c:pt>
@@ -3510,15 +3141,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,11 +3148,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="91633812"/>
-        <c:axId val="19888275"/>
+        <c:axId val="4661562"/>
+        <c:axId val="35325953"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91633812"/>
+        <c:axId val="4661562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,14 +3168,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19888275"/>
+        <c:crossAx val="35325953"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19888275"/>
+        <c:axId val="35325953"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3602,7 +3224,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91633812"/>
+        <c:crossAx val="4661562"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -3630,7 +3252,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3662,11 +3284,335 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$20:$A$20</c:f>
+              <c:f>Table!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Swiss-Prot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>219639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PROSITE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DIAGRAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3683,9 +3629,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>84</c:v>
                 </c:pt>
@@ -3718,403 +3664,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$20:$O$20</c:f>
+              <c:f>Table!$B$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>219639</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>220337</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220070</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>220197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>221467</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>221394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>221105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>221109</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>224018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>224015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>224132</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$A$18:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$B$18:$O$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3988</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3988</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3983</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$A$19:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PROSITE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$B$19:$O$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1441</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1442</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Table!$A$17:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DIAGRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Table!$B$1:$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Table!$B$17:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1690</c:v>
                 </c:pt>
@@ -4147,15 +3706,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1725</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,11 +3713,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="44256860"/>
-        <c:axId val="71889048"/>
+        <c:axId val="56279008"/>
+        <c:axId val="17184019"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44256860"/>
+        <c:axId val="56279008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,14 +3733,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71889048"/>
+        <c:crossAx val="17184019"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71889048"/>
+        <c:axId val="17184019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4239,7 +3789,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44256860"/>
+        <c:crossAx val="56279008"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4267,7 +3817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4294,118 +3844,94 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$A$1:$O$1</c:f>
+              <c:f>Table!$B$1:$L$1</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Release number</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$A$6:$O$6</c:f>
+              <c:f>Table!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>19432</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19432</c:v>
+                  <c:v>19534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19534</c:v>
+                  <c:v>19535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19535</c:v>
+                  <c:v>19556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19556</c:v>
+                  <c:v>19677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19677</c:v>
+                  <c:v>19844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19844</c:v>
+                  <c:v>19877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19877</c:v>
+                  <c:v>19889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19889</c:v>
+                  <c:v>20007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20007</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>20021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="71589232"/>
-        <c:axId val="98847771"/>
+        <c:axId val="48998635"/>
+        <c:axId val="26800222"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71589232"/>
+        <c:axId val="48998635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,14 +3970,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98847771"/>
+        <c:crossAx val="26800222"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98847771"/>
+        <c:axId val="26800222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4500,7 +4026,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71589232"/>
+        <c:crossAx val="48998635"/>
         <c:crosses val="min"/>
       </c:valAx>
       <c:spPr>
@@ -4526,13 +4052,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4540,8 +4066,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="162360"/>
-        <a:ext cx="11590200" cy="3833280"/>
+        <a:off x="165600" y="162720"/>
+        <a:ext cx="11599920" cy="3834360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4556,7 +4082,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4570,8 +4096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4083840"/>
-        <a:ext cx="11638800" cy="3738600"/>
+        <a:off x="152280" y="4084200"/>
+        <a:ext cx="11638800" cy="3738240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4630,9 +4156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
+      <xdr:colOff>491760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4641,7 +4167,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11249280" cy="3658680"/>
+        <a:ext cx="11245320" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4656,13 +4182,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4670,8 +4196,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3845520"/>
-        <a:ext cx="11253600" cy="3768480"/>
+        <a:off x="318600" y="3845880"/>
+        <a:ext cx="11249640" cy="3766680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4695,9 +4221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4706,7 +4232,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="59400" y="51840"/>
-        <a:ext cx="10968480" cy="3895920"/>
+        <a:ext cx="10975680" cy="3893760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4727,7 +4253,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L14" activeCellId="0" pane="topLeft" sqref="L14"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -6166,7 +5692,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
@@ -6389,7 +5915,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6427,7 +5953,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6463,7 +5989,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6480,7 +6006,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="N23" activeCellId="0" pane="topLeft" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6505,7 +6031,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
